--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1877,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>619.0328490455432</v>
+        <v>655.6197403951289</v>
       </c>
       <c r="AB2" t="n">
-        <v>846.9880538659838</v>
+        <v>897.0478527102158</v>
       </c>
       <c r="AC2" t="n">
-        <v>766.1527027602133</v>
+        <v>811.4348646621208</v>
       </c>
       <c r="AD2" t="n">
-        <v>619032.8490455432</v>
+        <v>655619.740395129</v>
       </c>
       <c r="AE2" t="n">
-        <v>846988.0538659838</v>
+        <v>897047.8527102158</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.119554847225866e-06</v>
+        <v>3.921731397410529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.169791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>766152.7027602133</v>
+        <v>811434.8646621208</v>
       </c>
     </row>
     <row r="3">
@@ -1983,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.6207091214396</v>
+        <v>227.0119103487957</v>
       </c>
       <c r="AB3" t="n">
-        <v>277.2345932146297</v>
+        <v>310.6077107977348</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.7757127395021</v>
+        <v>280.963746819951</v>
       </c>
       <c r="AD3" t="n">
-        <v>202620.7091214396</v>
+        <v>227011.9103487956</v>
       </c>
       <c r="AE3" t="n">
-        <v>277234.5932146297</v>
+        <v>310607.7107977348</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.97914364463712e-06</v>
+        <v>7.362457539801058e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.81875</v>
       </c>
       <c r="AH3" t="n">
-        <v>250775.7127395021</v>
+        <v>280963.746819951</v>
       </c>
     </row>
     <row r="4">
@@ -2089,28 +2089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>170.4362329550687</v>
+        <v>194.6568419818325</v>
       </c>
       <c r="AB4" t="n">
-        <v>233.1983730449446</v>
+        <v>266.3380788532029</v>
       </c>
       <c r="AC4" t="n">
-        <v>210.9422476175747</v>
+        <v>240.9191464153726</v>
       </c>
       <c r="AD4" t="n">
-        <v>170436.2329550687</v>
+        <v>194656.8419818325</v>
       </c>
       <c r="AE4" t="n">
-        <v>233198.3730449447</v>
+        <v>266338.0788532029</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.388933001499771e-06</v>
+        <v>8.12067513876356e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.4625</v>
       </c>
       <c r="AH4" t="n">
-        <v>210942.2476175746</v>
+        <v>240919.1464153726</v>
       </c>
     </row>
   </sheetData>
@@ -2386,28 +2386,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>365.2205101602411</v>
+        <v>400.5116465583928</v>
       </c>
       <c r="AB2" t="n">
-        <v>499.7108143929956</v>
+        <v>547.9977041480016</v>
       </c>
       <c r="AC2" t="n">
-        <v>452.0191156158602</v>
+        <v>495.697572383724</v>
       </c>
       <c r="AD2" t="n">
-        <v>365220.5101602411</v>
+        <v>400511.6465583928</v>
       </c>
       <c r="AE2" t="n">
-        <v>499710.8143929957</v>
+        <v>547997.7041480016</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.826796342617252e-06</v>
+        <v>5.388310095288466e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.561458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>452019.1156158603</v>
+        <v>495697.572383724</v>
       </c>
     </row>
     <row r="3">
@@ -2492,28 +2492,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.80168532953</v>
+        <v>186.3291095949642</v>
       </c>
       <c r="AB3" t="n">
-        <v>222.7524481712177</v>
+        <v>254.9437080078718</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.4932671528452</v>
+        <v>230.6122383314163</v>
       </c>
       <c r="AD3" t="n">
-        <v>162801.68532953</v>
+        <v>186329.1095949642</v>
       </c>
       <c r="AE3" t="n">
-        <v>222752.4481712177</v>
+        <v>254943.7080078718</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.42001021208553e-06</v>
+        <v>8.425221615013004e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.55625</v>
       </c>
       <c r="AH3" t="n">
-        <v>201493.2671528452</v>
+        <v>230612.2383314163</v>
       </c>
     </row>
     <row r="4">
@@ -2598,28 +2598,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.2073293606756</v>
+        <v>186.7347536261097</v>
       </c>
       <c r="AB4" t="n">
-        <v>223.3074682303824</v>
+        <v>255.4987280670365</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.9953168765389</v>
+        <v>231.11428805511</v>
       </c>
       <c r="AD4" t="n">
-        <v>163207.3293606756</v>
+        <v>186734.7536261097</v>
       </c>
       <c r="AE4" t="n">
-        <v>223307.4682303824</v>
+        <v>255498.7280670365</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.423330350868168e-06</v>
+        <v>8.431550311937695e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.554166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>201995.3168765389</v>
+        <v>231114.28805511</v>
       </c>
     </row>
   </sheetData>
@@ -2895,28 +2895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.3340914576068</v>
+        <v>187.1757250939677</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.5856420744097</v>
+        <v>256.1020846836477</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.8651878133484</v>
+        <v>231.6600611630483</v>
       </c>
       <c r="AD2" t="n">
-        <v>166334.0914576068</v>
+        <v>187175.7250939677</v>
       </c>
       <c r="AE2" t="n">
-        <v>227585.6420744097</v>
+        <v>256102.0846836476</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.171931703230729e-06</v>
+        <v>8.885122721113149e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.204166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>205865.1878133484</v>
+        <v>231660.0611630483</v>
       </c>
     </row>
   </sheetData>
@@ -3192,28 +3192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.0439786792332</v>
+        <v>195.7886851086905</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.0839646215095</v>
+        <v>267.8867165527639</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.7931441384076</v>
+        <v>242.3199843064145</v>
       </c>
       <c r="AD2" t="n">
-        <v>163043.9786792332</v>
+        <v>195788.6851086905</v>
       </c>
       <c r="AE2" t="n">
-        <v>223083.9646215095</v>
+        <v>267886.7165527639</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.223464558163709e-06</v>
+        <v>8.575093238494496e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.973958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>201793.1441384076</v>
+        <v>242319.9843064146</v>
       </c>
     </row>
     <row r="3">
@@ -3298,28 +3298,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.175435647111</v>
+        <v>177.1190277395114</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.3178769093464</v>
+        <v>242.3420676931128</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.0545567271909</v>
+        <v>219.2132808817805</v>
       </c>
       <c r="AD3" t="n">
-        <v>155175.435647111</v>
+        <v>177119.0277395114</v>
       </c>
       <c r="AE3" t="n">
-        <v>212317.8769093464</v>
+        <v>242342.0676931128</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.360562831698853e-06</v>
+        <v>8.853450132984839e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.847916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>192054.5567271909</v>
+        <v>219213.2808817805</v>
       </c>
     </row>
   </sheetData>
@@ -3595,28 +3595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.8171082819867</v>
+        <v>202.8712323183951</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.4559917040385</v>
+        <v>277.5773701050075</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.8889637239421</v>
+        <v>251.0857754845528</v>
       </c>
       <c r="AD2" t="n">
-        <v>172817.1082819867</v>
+        <v>202871.2323183951</v>
       </c>
       <c r="AE2" t="n">
-        <v>236455.9917040385</v>
+        <v>277577.3701050075</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.883591320052144e-06</v>
+        <v>8.647999311005505e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.691666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>213888.9637239421</v>
+        <v>251085.7754845528</v>
       </c>
     </row>
   </sheetData>
@@ -3892,28 +3892,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>410.6450318367263</v>
+        <v>446.2767228195017</v>
       </c>
       <c r="AB2" t="n">
-        <v>561.8626489392245</v>
+        <v>610.6155005011209</v>
       </c>
       <c r="AC2" t="n">
-        <v>508.2392663036447</v>
+        <v>552.3392141375307</v>
       </c>
       <c r="AD2" t="n">
-        <v>410645.0318367263</v>
+        <v>446276.7228195018</v>
       </c>
       <c r="AE2" t="n">
-        <v>561862.6489392245</v>
+        <v>610615.5005011209</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.635990364762352e-06</v>
+        <v>4.984034812532491e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.910416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>508239.2663036447</v>
+        <v>552339.2141375307</v>
       </c>
     </row>
     <row r="3">
@@ -3998,28 +3998,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.3707763502442</v>
+        <v>190.1252370054276</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.6358359629395</v>
+        <v>260.1377370041869</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.9105912676044</v>
+        <v>235.3105564901902</v>
       </c>
       <c r="AD3" t="n">
-        <v>166370.7763502442</v>
+        <v>190125.2370054276</v>
       </c>
       <c r="AE3" t="n">
-        <v>227635.8359629395</v>
+        <v>260137.737004187</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.392419916181873e-06</v>
+        <v>8.305027994852014e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>205910.5912676044</v>
+        <v>235310.5564901902</v>
       </c>
     </row>
     <row r="4">
@@ -4104,28 +4104,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.5116522062706</v>
+        <v>188.266112861454</v>
       </c>
       <c r="AB4" t="n">
-        <v>225.0921002903874</v>
+        <v>257.5940013316348</v>
       </c>
       <c r="AC4" t="n">
-        <v>203.6096261574845</v>
+        <v>233.0095913800703</v>
       </c>
       <c r="AD4" t="n">
-        <v>164511.6522062706</v>
+        <v>188266.112861454</v>
       </c>
       <c r="AE4" t="n">
-        <v>225092.1002903874</v>
+        <v>257594.0013316348</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.425323058323587e-06</v>
+        <v>8.367240060597099e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.520833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>203609.6261574845</v>
+        <v>233009.5913800703</v>
       </c>
     </row>
   </sheetData>
@@ -4401,28 +4401,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.1211719468202</v>
+        <v>209.7204394249684</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.1321750116625</v>
+        <v>286.9487574339081</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.305525326426</v>
+        <v>259.5627707596109</v>
       </c>
       <c r="AD2" t="n">
-        <v>190121.1719468202</v>
+        <v>209720.4394249684</v>
       </c>
       <c r="AE2" t="n">
-        <v>260132.1750116625</v>
+        <v>286948.7574339081</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.64595635505277e-06</v>
+        <v>8.358598304925306e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.113541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>235305.525326426</v>
+        <v>259562.7707596109</v>
       </c>
     </row>
   </sheetData>
@@ -4698,28 +4698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.66993349867</v>
+        <v>283.7704646440725</v>
       </c>
       <c r="AB2" t="n">
-        <v>341.6094176728105</v>
+        <v>388.2672687953695</v>
       </c>
       <c r="AC2" t="n">
-        <v>309.0066943020482</v>
+        <v>351.211585598073</v>
       </c>
       <c r="AD2" t="n">
-        <v>249669.93349867</v>
+        <v>283770.4646440725</v>
       </c>
       <c r="AE2" t="n">
-        <v>341609.4176728105</v>
+        <v>388267.2687953695</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.454668503412709e-06</v>
+        <v>6.771102523397574e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.688541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>309006.6943020482</v>
+        <v>351211.585598073</v>
       </c>
     </row>
     <row r="3">
@@ -4804,28 +4804,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.9207277970833</v>
+        <v>180.711309130397</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.0741067426785</v>
+        <v>247.25718557239</v>
       </c>
       <c r="AC3" t="n">
-        <v>195.4522972571326</v>
+        <v>223.6593068090724</v>
       </c>
       <c r="AD3" t="n">
-        <v>157920.7277970833</v>
+        <v>180711.309130397</v>
       </c>
       <c r="AE3" t="n">
-        <v>216074.1067426785</v>
+        <v>247257.18557239</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.423368871414382e-06</v>
+        <v>8.669741857305527e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.661458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>195452.2972571326</v>
+        <v>223659.3068090724</v>
       </c>
     </row>
   </sheetData>
@@ -5101,28 +5101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>327.4885786326042</v>
+        <v>350.7804226731643</v>
       </c>
       <c r="AB2" t="n">
-        <v>448.0843210615463</v>
+        <v>479.953249641478</v>
       </c>
       <c r="AC2" t="n">
-        <v>405.319782349726</v>
+        <v>434.1471851143112</v>
       </c>
       <c r="AD2" t="n">
-        <v>327488.5786326042</v>
+        <v>350780.4226731643</v>
       </c>
       <c r="AE2" t="n">
-        <v>448084.3210615463</v>
+        <v>479953.249641478</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.017726121486524e-06</v>
+        <v>5.802191312114099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.258333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>405319.782349726</v>
+        <v>434147.1851143112</v>
       </c>
     </row>
     <row r="3">
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.9296862903582</v>
+        <v>184.2214408223671</v>
       </c>
       <c r="AB3" t="n">
-        <v>220.1910964990552</v>
+        <v>252.0599026094221</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.1763672893934</v>
+        <v>228.0036592727473</v>
       </c>
       <c r="AD3" t="n">
-        <v>160929.6862903582</v>
+        <v>184221.4408223671</v>
       </c>
       <c r="AE3" t="n">
-        <v>220191.0964990552</v>
+        <v>252059.9026094221</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.426648333295257e-06</v>
+        <v>8.511130389983203e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.585416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>199176.3672893934</v>
+        <v>228003.6592727473</v>
       </c>
     </row>
     <row r="4">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>161.6211052923992</v>
+        <v>184.912859824408</v>
       </c>
       <c r="AB4" t="n">
-        <v>221.1371264809006</v>
+        <v>253.0059325912676</v>
       </c>
       <c r="AC4" t="n">
-        <v>200.0321094975333</v>
+        <v>228.8594014808873</v>
       </c>
       <c r="AD4" t="n">
-        <v>161621.1052923992</v>
+        <v>184912.859824408</v>
       </c>
       <c r="AE4" t="n">
-        <v>221137.1264809006</v>
+        <v>253005.9325912676</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.425886589019842e-06</v>
+        <v>8.509665781917745e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.585416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>200032.1094975333</v>
+        <v>228859.4014808873</v>
       </c>
     </row>
   </sheetData>
@@ -5610,28 +5610,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>534.6165536726867</v>
+        <v>582.9026345755933</v>
       </c>
       <c r="AB2" t="n">
-        <v>731.4859543527296</v>
+        <v>797.5531004756314</v>
       </c>
       <c r="AC2" t="n">
-        <v>661.6739615162892</v>
+        <v>721.4357519390431</v>
       </c>
       <c r="AD2" t="n">
-        <v>534616.5536726867</v>
+        <v>582902.6345755933</v>
       </c>
       <c r="AE2" t="n">
-        <v>731485.9543527296</v>
+        <v>797553.1004756314</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.285902087682214e-06</v>
+        <v>4.258462211852461e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.701041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>661673.9615162892</v>
+        <v>721435.7519390432</v>
       </c>
     </row>
     <row r="3">
@@ -5716,28 +5716,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.5875748524275</v>
+        <v>212.7732857311663</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.0338398095867</v>
+        <v>291.1257964321196</v>
       </c>
       <c r="AC3" t="n">
-        <v>233.4074522910037</v>
+        <v>263.3411590183453</v>
       </c>
       <c r="AD3" t="n">
-        <v>188587.5748524275</v>
+        <v>212773.2857311663</v>
       </c>
       <c r="AE3" t="n">
-        <v>258033.8398095867</v>
+        <v>291125.7964321196</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.131093428707394e-06</v>
+        <v>7.695913729017123e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.708333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>233407.4522910037</v>
+        <v>263341.1590183453</v>
       </c>
     </row>
     <row r="4">
@@ -5822,28 +5822,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>169.7234558972486</v>
+        <v>193.7385745753951</v>
       </c>
       <c r="AB4" t="n">
-        <v>232.2231200289312</v>
+        <v>265.0816648766171</v>
       </c>
       <c r="AC4" t="n">
-        <v>210.060071380633</v>
+        <v>239.7826428253236</v>
       </c>
       <c r="AD4" t="n">
-        <v>169723.4558972486</v>
+        <v>193738.5745753951</v>
       </c>
       <c r="AE4" t="n">
-        <v>232223.1200289312</v>
+        <v>265081.6648766171</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.379461947594191e-06</v>
+        <v>8.158605441839177e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.497916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>210060.071380633</v>
+        <v>239782.6428253236</v>
       </c>
     </row>
   </sheetData>
@@ -6119,28 +6119,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.742928446403</v>
+        <v>216.8986440786002</v>
       </c>
       <c r="AB2" t="n">
-        <v>266.4558661518949</v>
+        <v>296.7702937210413</v>
       </c>
       <c r="AC2" t="n">
-        <v>241.0256922595929</v>
+        <v>268.4469534081159</v>
       </c>
       <c r="AD2" t="n">
-        <v>194742.928446403</v>
+        <v>216898.6440786002</v>
       </c>
       <c r="AE2" t="n">
-        <v>266455.8661518949</v>
+        <v>296770.2937210413</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.976361839485497e-06</v>
+        <v>7.970606789629895e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.167708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>241025.6922595929</v>
+        <v>268446.9534081159</v>
       </c>
     </row>
     <row r="3">
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.5533485981173</v>
+        <v>177.7943155763351</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.8349540812557</v>
+        <v>243.2660263030513</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.5222847795357</v>
+        <v>220.0490581787709</v>
       </c>
       <c r="AD3" t="n">
-        <v>155553.3485981173</v>
+        <v>177794.3155763351</v>
       </c>
       <c r="AE3" t="n">
-        <v>212834.9540812557</v>
+        <v>243266.0263030513</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.396826906169241e-06</v>
+        <v>8.813427903652372e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.76875</v>
       </c>
       <c r="AH3" t="n">
-        <v>192522.2847795357</v>
+        <v>220049.0581787709</v>
       </c>
     </row>
   </sheetData>
@@ -6522,28 +6522,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.5144469829192</v>
+        <v>186.7196936506425</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.4641683439805</v>
+        <v>255.4781223442029</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.8507459617528</v>
+        <v>231.0956489135434</v>
       </c>
       <c r="AD2" t="n">
-        <v>165514.4469829192</v>
+        <v>186719.6936506425</v>
       </c>
       <c r="AE2" t="n">
-        <v>226464.1683439805</v>
+        <v>255478.1223442029</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.253908669759108e-06</v>
+        <v>8.899442967723099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.058333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>204850.7459617527</v>
+        <v>231095.6489135434</v>
       </c>
     </row>
     <row r="3">
@@ -6628,28 +6628,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.8773425035305</v>
+        <v>187.0825891712538</v>
       </c>
       <c r="AB3" t="n">
-        <v>226.9606980051012</v>
+        <v>255.9746520053235</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.2998875288999</v>
+        <v>231.5447904806906</v>
       </c>
       <c r="AD3" t="n">
-        <v>165877.3425035306</v>
+        <v>187082.5891712538</v>
       </c>
       <c r="AE3" t="n">
-        <v>226960.6980051012</v>
+        <v>255974.6520053236</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.263685865377176e-06</v>
+        <v>8.919897472401543e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.048958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>205299.8875288999</v>
+        <v>231544.7904806906</v>
       </c>
     </row>
   </sheetData>
@@ -10994,28 +10994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.76467421265</v>
+        <v>189.2101932724172</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.9112726296015</v>
+        <v>258.8857337998023</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.8734248559055</v>
+        <v>234.1780427144342</v>
       </c>
       <c r="AD2" t="n">
-        <v>168764.67421265</v>
+        <v>189210.1932724172</v>
       </c>
       <c r="AE2" t="n">
-        <v>230911.2726296014</v>
+        <v>258885.7337998023</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.048366281852105e-06</v>
+        <v>8.800564400298015e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.410416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>208873.4248559055</v>
+        <v>234178.0427144342</v>
       </c>
     </row>
   </sheetData>
@@ -11291,28 +11291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.1585380262602</v>
+        <v>233.6956700493815</v>
       </c>
       <c r="AB2" t="n">
-        <v>280.7069626833129</v>
+        <v>319.7527256867392</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.9166841395965</v>
+        <v>289.2359743230608</v>
       </c>
       <c r="AD2" t="n">
-        <v>205158.5380262602</v>
+        <v>233695.6700493815</v>
       </c>
       <c r="AE2" t="n">
-        <v>280706.9626833129</v>
+        <v>319752.7256867391</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.270072438448075e-06</v>
+        <v>7.777955467522371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.860416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>253916.6841395965</v>
+        <v>289235.9743230608</v>
       </c>
     </row>
   </sheetData>
@@ -11588,28 +11588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.6217938696987</v>
+        <v>315.1062219185878</v>
       </c>
       <c r="AB2" t="n">
-        <v>383.9591185323205</v>
+        <v>431.1422343344048</v>
       </c>
       <c r="AC2" t="n">
-        <v>347.3145991496025</v>
+        <v>389.9946246014549</v>
       </c>
       <c r="AD2" t="n">
-        <v>280621.7938696987</v>
+        <v>315106.2219185878</v>
       </c>
       <c r="AE2" t="n">
-        <v>383959.1185323205</v>
+        <v>431142.2343344048</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.230495083810909e-06</v>
+        <v>6.269028318660577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.961458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>347314.5991496025</v>
+        <v>389994.6246014549</v>
       </c>
     </row>
     <row r="3">
@@ -11694,28 +11694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.2751150950928</v>
+        <v>182.3216276973996</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.9272391951647</v>
+        <v>249.4604944780031</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.1285693492418</v>
+        <v>225.652335005098</v>
       </c>
       <c r="AD3" t="n">
-        <v>159275.1150950928</v>
+        <v>182321.6276973996</v>
       </c>
       <c r="AE3" t="n">
-        <v>217927.2391951647</v>
+        <v>249460.4944780032</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.428832579058319e-06</v>
+        <v>8.594495932174678e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.61875</v>
       </c>
       <c r="AH3" t="n">
-        <v>197128.5693492419</v>
+        <v>225652.335005098</v>
       </c>
     </row>
   </sheetData>
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>474.678271731411</v>
+        <v>510.5535124977637</v>
       </c>
       <c r="AB2" t="n">
-        <v>649.4757527103014</v>
+        <v>698.5618398307463</v>
       </c>
       <c r="AC2" t="n">
-        <v>587.4906984165734</v>
+        <v>631.892078274999</v>
       </c>
       <c r="AD2" t="n">
-        <v>474678.271731411</v>
+        <v>510553.5124977637</v>
       </c>
       <c r="AE2" t="n">
-        <v>649475.7527103014</v>
+        <v>698561.8398307463</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.456006774715972e-06</v>
+        <v>4.608432027048377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.288541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>587490.6984165735</v>
+        <v>631892.078274999</v>
       </c>
     </row>
     <row r="3">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.0626723417894</v>
+        <v>199.036333750038</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.5284715179535</v>
+        <v>272.3302926999994</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.6682103766706</v>
+        <v>246.3394717827577</v>
       </c>
       <c r="AD3" t="n">
-        <v>175062.6723417894</v>
+        <v>199036.333750038</v>
       </c>
       <c r="AE3" t="n">
-        <v>239528.4715179535</v>
+        <v>272330.2926999994</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.291339535971364e-06</v>
+        <v>8.052236158345455e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.598958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>216668.2103766706</v>
+        <v>246339.4717827577</v>
       </c>
     </row>
     <row r="4">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>166.2840793571883</v>
+        <v>190.0871485648447</v>
       </c>
       <c r="AB4" t="n">
-        <v>227.517213312239</v>
+        <v>260.0856227194381</v>
       </c>
       <c r="AC4" t="n">
-        <v>205.8032897961988</v>
+        <v>235.2634159196349</v>
       </c>
       <c r="AD4" t="n">
-        <v>166284.0793571883</v>
+        <v>190087.1485648447</v>
       </c>
       <c r="AE4" t="n">
-        <v>227517.213312239</v>
+        <v>260085.6227194381</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.416334326546439e-06</v>
+        <v>8.286775412076545e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.496875</v>
       </c>
       <c r="AH4" t="n">
-        <v>205803.2897961988</v>
+        <v>235263.4159196349</v>
       </c>
     </row>
   </sheetData>
@@ -12500,28 +12500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.0252685661798</v>
+        <v>292.4954482185245</v>
       </c>
       <c r="AB2" t="n">
-        <v>350.3050674897681</v>
+        <v>400.2051762410438</v>
       </c>
       <c r="AC2" t="n">
-        <v>316.8724435048994</v>
+        <v>362.0101559120903</v>
       </c>
       <c r="AD2" t="n">
-        <v>256025.2685661798</v>
+        <v>292495.4482185245</v>
       </c>
       <c r="AE2" t="n">
-        <v>350305.0674897681</v>
+        <v>400205.1762410438</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.665799384171828e-06</v>
+        <v>6.666961953546962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.444791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>316872.4435048994</v>
+        <v>362010.1559120903</v>
       </c>
     </row>
   </sheetData>
@@ -12797,28 +12797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.0679686796248</v>
+        <v>176.6958626283103</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.1708358633238</v>
+        <v>241.7630745192406</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.9215490722272</v>
+        <v>218.6895460038006</v>
       </c>
       <c r="AD2" t="n">
-        <v>155067.9686796248</v>
+        <v>176695.8626283103</v>
       </c>
       <c r="AE2" t="n">
-        <v>212170.8358633238</v>
+        <v>241763.0745192406</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.303601470789499e-06</v>
+        <v>8.862335319134129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>191921.5490722272</v>
+        <v>218689.5460038006</v>
       </c>
     </row>
     <row r="3">
@@ -12903,28 +12903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.8664395595869</v>
+        <v>176.4943335082724</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.8950948304508</v>
+        <v>241.4873334863676</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.6721243765266</v>
+        <v>218.4401213080999</v>
       </c>
       <c r="AD3" t="n">
-        <v>154866.4395595869</v>
+        <v>176494.3335082724</v>
       </c>
       <c r="AE3" t="n">
-        <v>211895.0948304508</v>
+        <v>241487.3334863676</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.321564442702182e-06</v>
+        <v>8.899326170052575e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.936458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>191672.1243765266</v>
+        <v>218440.1213080999</v>
       </c>
     </row>
   </sheetData>
@@ -13200,28 +13200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.7030748411125</v>
+        <v>243.1404381526387</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.9756837299477</v>
+        <v>332.6754740793705</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.1555483003847</v>
+        <v>300.9253937462948</v>
       </c>
       <c r="AD2" t="n">
-        <v>220703.0748411125</v>
+        <v>243140.4381526387</v>
       </c>
       <c r="AE2" t="n">
-        <v>301975.6837299477</v>
+        <v>332675.4740793705</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.707152905067347e-06</v>
+        <v>7.34455243546898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.417708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>273155.5483003847</v>
+        <v>300925.3937462948</v>
       </c>
     </row>
     <row r="3">
@@ -13306,28 +13306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.7520891796623</v>
+        <v>179.2747038372092</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.4751238296268</v>
+        <v>245.2915588316988</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.0059190291155</v>
+        <v>221.8812767257377</v>
       </c>
       <c r="AD3" t="n">
-        <v>156752.0891796623</v>
+        <v>179274.7038372091</v>
       </c>
       <c r="AE3" t="n">
-        <v>214475.1238296268</v>
+        <v>245291.5588316988</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.412768166017441e-06</v>
+        <v>8.742506179494799e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.711458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>194005.9190291155</v>
+        <v>221881.2767257377</v>
       </c>
     </row>
   </sheetData>
